--- a/LR1table.xlsx
+++ b/LR1table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Microsoft\source\repos\AbLan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5F846-3A83-421D-8160-0F4F96A42F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2F7F6-DBD3-489E-9B5B-6FC64246E134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ETT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,19 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 S -&gt; GVL</t>
-  </si>
-  <si>
-    <t>1 GVL -&gt; id vop ETT</t>
-  </si>
-  <si>
-    <t>2 GVL -&gt; id vop ALS</t>
-  </si>
-  <si>
     <t>3 ALS -&gt; ETT alop ETT</t>
   </si>
   <si>
@@ -335,6 +318,21 @@
   <si>
     <t>因为替换字符状态不平衡 所以goto</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGL</t>
+  </si>
+  <si>
+    <t>$VGL</t>
+  </si>
+  <si>
+    <t>0 S -&gt; VGL</t>
+  </si>
+  <si>
+    <t>1 VGL -&gt; id vop ETT</t>
+  </si>
+  <si>
+    <t>2 VGL -&gt; id vop ALS</t>
   </si>
 </sst>
 </file>
@@ -535,18 +533,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -569,16 +555,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="B1:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -873,764 +871,769 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="M3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="M5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>17</v>
+      </c>
+      <c r="J6" s="15">
+        <v>4</v>
+      </c>
+      <c r="K6" s="16">
+        <v>14</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="M7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>4</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="K8" s="16">
+        <v>14</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
-    </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16">
+        <v>10</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>14</v>
+      </c>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="M12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="M13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>6</v>
+      </c>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="M14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="M15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>17</v>
+      </c>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="M16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="M17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="M18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="Q18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="M3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="G20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
+        <v>19</v>
+      </c>
+      <c r="K21" s="16">
         <v>14</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="M5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19">
-        <v>17</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4</v>
-      </c>
-      <c r="K6" s="20">
-        <v>14</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="22" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="M7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>4</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19">
-        <v>6</v>
-      </c>
-      <c r="K8" s="20">
-        <v>14</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="M9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
-        <v>8</v>
-      </c>
-      <c r="K10" s="20">
-        <v>10</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="M11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>14</v>
-      </c>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="M12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="M13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>6</v>
-      </c>
-      <c r="R13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="M14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="M15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>17</v>
-      </c>
-      <c r="R15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="M16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="19" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="M17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>1</v>
-      </c>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="M18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="G20" s="22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19">
-        <v>19</v>
-      </c>
-      <c r="K21" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="25" t="s">
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="26"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="25" t="s">
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="26"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="25" t="s">
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="26"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="26"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="26"/>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -1638,11 +1641,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
